--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_5771.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_5771.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>5771</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Haris Rauf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -548,7 +612,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4433</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +660,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +712,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +864,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +916,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +968,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1016,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1112,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1160,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1144,7 +1208,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4634</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1192,7 +1256,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4638</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1240,7 +1304,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1292,7 +1356,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1383,7 +1447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1405,7 +1469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1442,7 +1506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4432</t>
+          <t>4432</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1479,7 +1543,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4433</t>
+          <t>4433</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1516,7 +1580,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4458</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1553,7 +1617,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4459</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1590,7 +1654,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4460</t>
+          <t>4460</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1627,7 +1691,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1664,7 +1728,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1701,7 +1765,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1738,7 +1802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4564</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1775,7 +1839,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4565</t>
+          <t>4565</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1812,7 +1876,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4567</t>
+          <t>4567</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1849,7 +1913,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4586</t>
+          <t>4586</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1886,7 +1950,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4590</t>
+          <t>4590</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1923,7 +1987,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4634</t>
+          <t>4634</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1960,7 +2024,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4638</t>
+          <t>4638</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1997,7 +2061,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4686</t>
+          <t>4686</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2034,7 +2098,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4688</t>
+          <t>4688</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2071,7 +2135,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4690</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_5771.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_5771.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>30/10/2020</t>
@@ -604,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>01/11/2020</t>
@@ -652,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/04/2021</t>
@@ -752,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>07/04/2021</t>
@@ -1008,7 +1005,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>31/03/2022</t>
@@ -1056,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>02/04/2022</t>
@@ -1104,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/06/2022</t>
@@ -1152,7 +1146,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>10/06/2022</t>
@@ -1200,7 +1193,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>16/08/2022</t>
@@ -1248,7 +1240,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -1296,7 +1287,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>09/01/2023</t>
@@ -2167,4 +2157,385 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4432</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4433</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4458</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4459</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4460</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.11%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4564</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4567</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4586</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4590</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4634</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4638</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4686</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4688</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4690</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_5771.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_5771.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>30/10/2020</t>
@@ -604,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>01/11/2020</t>
@@ -651,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/04/2021</t>
@@ -750,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>07/04/2021</t>
@@ -1005,6 +1008,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>31/03/2022</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>02/04/2022</t>
@@ -1099,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>08/06/2022</t>
@@ -1146,6 +1152,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>10/06/2022</t>
@@ -1193,6 +1200,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>16/08/2022</t>
@@ -1240,6 +1248,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>18/08/2022</t>
@@ -1287,6 +1296,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>09/01/2023</t>
@@ -2157,385 +2167,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4432</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4433</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4458</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.31%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4459</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4460</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>11</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.11%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4565</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4567</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4586</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4590</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4634</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4638</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4686</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4688</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4690</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>